--- a/skills.xlsx
+++ b/skills.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\bcrud\OneDrive\Desktop\c_dev\team_alloc\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{61C6946E-2FC5-4028-9B67-959ABC6C5978}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7323AFA6-3AAE-4953-933A-7759680B7044}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{1DDAFEA4-8BA1-4063-871B-3E9618EFC796}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="23">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="25">
   <si>
     <t>Player</t>
   </si>
@@ -47,6 +47,60 @@
     <t>Goalies</t>
   </si>
   <si>
+    <t>E</t>
+  </si>
+  <si>
+    <t>F</t>
+  </si>
+  <si>
+    <t>G</t>
+  </si>
+  <si>
+    <t>H</t>
+  </si>
+  <si>
+    <t>I</t>
+  </si>
+  <si>
+    <t>J</t>
+  </si>
+  <si>
+    <t>K</t>
+  </si>
+  <si>
+    <t>L</t>
+  </si>
+  <si>
+    <t>M</t>
+  </si>
+  <si>
+    <t>N</t>
+  </si>
+  <si>
+    <t>O</t>
+  </si>
+  <si>
+    <t>P</t>
+  </si>
+  <si>
+    <t>Tot. Avail.</t>
+  </si>
+  <si>
+    <t>Q</t>
+  </si>
+  <si>
+    <t>G3</t>
+  </si>
+  <si>
+    <t>G4</t>
+  </si>
+  <si>
+    <t>G2</t>
+  </si>
+  <si>
+    <t>G1</t>
+  </si>
+  <si>
     <t>A</t>
   </si>
   <si>
@@ -57,54 +111,6 @@
   </si>
   <si>
     <t>D</t>
-  </si>
-  <si>
-    <t>E</t>
-  </si>
-  <si>
-    <t>F</t>
-  </si>
-  <si>
-    <t>G</t>
-  </si>
-  <si>
-    <t>H</t>
-  </si>
-  <si>
-    <t>I</t>
-  </si>
-  <si>
-    <t>J</t>
-  </si>
-  <si>
-    <t>K</t>
-  </si>
-  <si>
-    <t>L</t>
-  </si>
-  <si>
-    <t>M</t>
-  </si>
-  <si>
-    <t>N</t>
-  </si>
-  <si>
-    <t>O</t>
-  </si>
-  <si>
-    <t>P</t>
-  </si>
-  <si>
-    <t>Tot. Avail.</t>
-  </si>
-  <si>
-    <t>G1</t>
-  </si>
-  <si>
-    <t>G2</t>
-  </si>
-  <si>
-    <t>Q</t>
   </si>
 </sst>
 </file>
@@ -459,7 +465,7 @@
   <dimension ref="A1:E18"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D8" sqref="D8"/>
+      <selection activeCell="J7" sqref="J7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -478,15 +484,15 @@
         <v>1</v>
       </c>
       <c r="E1" t="s">
-        <v>19</v>
+        <v>15</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
-        <v>3</v>
+        <v>21</v>
       </c>
       <c r="B2">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="C2" t="s">
         <v>20</v>
@@ -501,41 +507,53 @@
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
-        <v>4</v>
+        <v>22</v>
       </c>
       <c r="B3">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="C3" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="D3">
         <v>5</v>
       </c>
       <c r="E3">
         <f>COUNTIF(C2:C100, "*")</f>
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
-        <v>5</v>
+        <v>23</v>
       </c>
       <c r="B4">
-        <v>3</v>
+        <v>7</v>
+      </c>
+      <c r="C4" t="s">
+        <v>17</v>
+      </c>
+      <c r="D4">
+        <v>1</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
-        <v>6</v>
+        <v>24</v>
       </c>
       <c r="B5">
-        <v>4</v>
+        <v>5</v>
+      </c>
+      <c r="C5" t="s">
+        <v>18</v>
+      </c>
+      <c r="D5">
+        <v>10</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="B6">
         <v>5</v>
@@ -543,7 +561,7 @@
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="B7">
         <v>6</v>
@@ -551,7 +569,7 @@
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="B8">
         <v>7</v>
@@ -559,7 +577,7 @@
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="B9">
         <v>8</v>
@@ -567,7 +585,7 @@
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A10" t="s">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="B10">
         <v>9</v>
@@ -575,7 +593,7 @@
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A11" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="B11">
         <v>8</v>
@@ -583,7 +601,7 @@
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A12" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="B12">
         <v>7</v>
@@ -591,7 +609,7 @@
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A13" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="B13">
         <v>6</v>
@@ -599,7 +617,7 @@
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A14" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="B14">
         <v>5</v>
@@ -607,7 +625,7 @@
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A15" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="B15">
         <v>4</v>
@@ -615,7 +633,7 @@
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A16" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="B16">
         <v>3</v>
@@ -623,7 +641,7 @@
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A17" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="B17">
         <v>2</v>
@@ -631,7 +649,7 @@
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A18" t="s">
-        <v>22</v>
+        <v>16</v>
       </c>
       <c r="B18">
         <v>1</v>
